--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2491919.951891471</v>
+        <v>2487907.341877478</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>354.4597957053223</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>374.3724651321501</v>
       </c>
     </row>
     <row r="3">
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>141.7312913064991</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.1042548772646</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>379.8213443808073</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.95334414451713</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>236.8978589069446</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>105.4063450911305</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187872</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174119</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899578</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>130.4114987159128</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,13 +2295,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>60.11729550773659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,16 +2763,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>99.98993057842257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>102.3739644559489</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2288.135186201105</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1919.172669260694</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1560.906970653943</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1175.118718055699</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>764.1328132660913</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176917</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.274518176917</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2288.135186201105</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4415,7 +4415,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,34 +4427,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,25 +4512,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
         <v>1273.262145272047</v>
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2312.009746557806</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1943.047229617394</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D5" t="n">
-        <v>1584.781531010644</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883008</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2698.609586621928</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2698.609586621928</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>944.7237329438971</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4728,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344356</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1126.372197774137</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.358723975039</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>758.7856865549936</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>758.7856865549936</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>758.7856865549936</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>347.7997817653861</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3219.134765961564</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3013.157018345787</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2759.626541619623</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2428.563654276052</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2428.563654276052</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X8" t="n">
-        <v>2055.097896014972</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y8" t="n">
-        <v>1664.958564039161</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098242</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819173</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695815</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871884</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640064</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938885</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219835</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>449.3439841395904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5755,43 +5755,43 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591808</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650995</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U28" t="n">
-        <v>4517.069482196493</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7402,16 +7402,16 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2490.32382148308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674364</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637403</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
         <v>402.7245934908939</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-2.184459016223422e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992863</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>35.112639576356</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>226.4057028288544</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600923</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>149.7636788678792</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448193</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448199</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.371644819</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="G2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597546</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>2.054705732759963e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>90354.0670231448</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314474</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314473</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179356</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179356</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26447,7 +26447,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-890725.3816673114</v>
+        <v>-890725.3816673112</v>
       </c>
       <c r="C6" t="n">
-        <v>438019.3640602815</v>
+        <v>438019.3640602812</v>
       </c>
       <c r="D6" t="n">
-        <v>438019.3640602814</v>
+        <v>438019.3640602808</v>
       </c>
       <c r="E6" t="n">
-        <v>187836.590876699</v>
+        <v>187489.2116223424</v>
       </c>
       <c r="F6" t="n">
-        <v>513249.0526840541</v>
+        <v>512901.6734296969</v>
       </c>
       <c r="G6" t="n">
-        <v>513249.0526840547</v>
+        <v>512901.6734296972</v>
       </c>
       <c r="H6" t="n">
-        <v>513249.0526840542</v>
+        <v>512901.673429697</v>
       </c>
       <c r="I6" t="n">
-        <v>513249.0526840543</v>
+        <v>512901.6734296971</v>
       </c>
       <c r="J6" t="n">
-        <v>295717.8502867765</v>
+        <v>295370.4710324197</v>
       </c>
       <c r="K6" t="n">
-        <v>513249.0526840542</v>
+        <v>512901.6734296969</v>
       </c>
       <c r="L6" t="n">
-        <v>513249.052684054</v>
+        <v>512901.6734296972</v>
       </c>
       <c r="M6" t="n">
-        <v>428194.0247485423</v>
+        <v>427846.6454941856</v>
       </c>
       <c r="N6" t="n">
-        <v>513249.0526840543</v>
+        <v>512901.6734296971</v>
       </c>
       <c r="O6" t="n">
-        <v>513249.0526840542</v>
+        <v>512901.6734296971</v>
       </c>
       <c r="P6" t="n">
-        <v>513249.0526840541</v>
+        <v>512901.6734296972</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.46192994813111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>11.86547352390352</v>
       </c>
     </row>
     <row r="3">
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>110.4063520173289</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>32.82611519499721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>27.05470136090412</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.6313092075777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>174.0238667465088</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.781416697045316</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236501</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>324.5433647340724</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32952,7 +32952,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33022,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33201,10 +33201,10 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33259,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>351.1157147121651</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963275</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>182.4093308120541</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,10 +36849,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>213.2742757378061</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164533</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2487907.341877478</v>
+        <v>2489667.872180264</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>374.3724651321501</v>
+        <v>374.3724651321492</v>
       </c>
     </row>
     <row r="3">
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>149.2419515106227</v>
       </c>
       <c r="V4" t="n">
-        <v>141.7312913064991</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>379.8213443808073</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>18.26225701841105</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>269.2612176364599</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>236.8978589069446</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.6478431952951</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>71.67037196991669</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>154.0370966050008</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>182.4326803923963</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142957</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>135.0949745400652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,19 +4360,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
         <v>1320.35562273557</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4412,13 +4412,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4427,34 +4427,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,16 +4512,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="V4" t="n">
         <v>1273.262145272047</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>758.7856865549927</v>
+        <v>758.7856865549909</v>
       </c>
       <c r="D5" t="n">
-        <v>758.7856865549927</v>
+        <v>400.5199879482404</v>
       </c>
       <c r="E5" t="n">
-        <v>758.7856865549927</v>
+        <v>400.5199879482404</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>393.5744871990369</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>382.5424410844375</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>84.95884069320465</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228006</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,13 +4661,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495405</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549936</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>758.7856865549936</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>758.7856865549936</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>347.7997817653861</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3034.86278627233</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796419</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535339</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559527</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5059,10 +5059,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,22 +5071,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2041.469518613829</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5308,13 +5308,13 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
@@ -5515,52 +5515,52 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5664,10 +5664,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111712</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6138,13 +6138,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,31 +6214,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2012.787110747773</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1723.711884091971</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>34.97276993489194</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767828</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797336.9821029656</v>
+        <v>797336.9821029655</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797336.9821029655</v>
+        <v>797336.9821029656</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.371644819</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597545</v>
@@ -26331,31 +26331,31 @@
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231449</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314473</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179351</v>
+      </c>
+      <c r="G4" t="n">
         <v>11167.03225179358</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179357</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179356</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-890725.3816673112</v>
       </c>
       <c r="C6" t="n">
-        <v>438019.3640602812</v>
+        <v>438019.3640602818</v>
       </c>
       <c r="D6" t="n">
-        <v>438019.3640602808</v>
+        <v>438019.3640602811</v>
       </c>
       <c r="E6" t="n">
-        <v>187489.2116223424</v>
+        <v>187801.8529512632</v>
       </c>
       <c r="F6" t="n">
-        <v>512901.6734296969</v>
+        <v>513214.3147586182</v>
       </c>
       <c r="G6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="H6" t="n">
-        <v>512901.673429697</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="I6" t="n">
-        <v>512901.6734296971</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="J6" t="n">
-        <v>295370.4710324197</v>
+        <v>295683.112361341</v>
       </c>
       <c r="K6" t="n">
-        <v>512901.6734296969</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="L6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="M6" t="n">
-        <v>427846.6454941856</v>
+        <v>428159.2868231066</v>
       </c>
       <c r="N6" t="n">
-        <v>512901.6734296971</v>
+        <v>513214.3147586184</v>
       </c>
       <c r="O6" t="n">
-        <v>512901.6734296971</v>
+        <v>513214.3147586185</v>
       </c>
       <c r="P6" t="n">
-        <v>512901.6734296972</v>
+        <v>513214.3147586184</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.022529435979808e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.86547352390352</v>
+        <v>11.86547352390443</v>
       </c>
     </row>
     <row r="3">
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>136.9698866949902</v>
       </c>
       <c r="V4" t="n">
-        <v>110.4063520173289</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>27.05470136090412</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>23.31467275451496</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>17.26178070013111</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>174.0238667465088</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>25.27012694432506</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.68204843992143</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,25 +31837,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236515</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -33201,7 +33201,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683806</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
